--- a/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
+++ b/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
+++ b/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
+++ b/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
+++ b/publipostage2/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00132587</t>
